--- a/edAlgs.xlsx
+++ b/edAlgs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelay\Desktop\JAVA_2021-2022\EDENG_2021-2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE6EEE4-B36E-4070-AF65-4D79DF862291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="7170" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="cubic" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,8 @@
     <sheet name="powRec4" sheetId="10" r:id="rId10"/>
     <sheet name="quadratic" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,6 +125,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -384,6 +380,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -391,7 +388,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -441,6 +437,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -671,6 +668,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -678,7 +676,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -728,6 +725,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1072,6 +1070,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1079,7 +1078,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1498,6 +1496,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1505,7 +1504,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1924,6 +1922,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1931,7 +1930,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2006,6 +2004,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2350,6 +2349,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2357,7 +2357,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2407,6 +2406,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2751,6 +2751,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2758,7 +2759,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3152,6 +3152,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3159,7 +3160,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3209,6 +3209,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3439,6 +3440,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3446,7 +3448,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3496,6 +3497,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3726,6 +3728,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3733,7 +3736,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3783,6 +3785,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4013,6 +4016,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4020,7 +4024,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10380,16 +10383,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>728662</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>728662</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10884,7 +10887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11000,7 +11003,1755 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11021,52 +12772,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -11075,1604 +12826,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3044</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>3701</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>3872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>4053</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>4234</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>4418</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>4614</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>4806</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>5005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>5212</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12693,158 +12848,6 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>16403</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
         <v>14</v>
       </c>
     </row>

--- a/edAlgs.xlsx
+++ b/edAlgs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelay\Desktop\JAVA_2021-2022\EDENG_2021-2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE6EEE4-B36E-4070-AF65-4D79DF862291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="7170" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cubic" sheetId="1" r:id="rId1"/>
@@ -19,8 +25,7 @@
     <sheet name="powRec4" sheetId="10" r:id="rId10"/>
     <sheet name="quadratic" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:Q21"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,7 +130,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -380,7 +384,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -388,6 +391,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -437,7 +441,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -668,7 +671,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -676,6 +678,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -725,7 +728,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1070,7 +1072,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1078,6 +1079,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1496,7 +1498,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1504,6 +1505,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1922,7 +1924,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1930,6 +1931,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2004,7 +2006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2349,7 +2350,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2357,6 +2357,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2406,7 +2407,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2751,7 +2751,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2759,6 +2758,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3152,7 +3152,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3160,6 +3159,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3209,7 +3209,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3440,7 +3439,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3448,6 +3446,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3497,7 +3496,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3728,7 +3726,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3736,6 +3733,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3785,7 +3783,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4016,7 +4013,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4024,6 +4020,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10383,16 +10380,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10887,7 +10884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11003,10 +11000,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
@@ -11079,10 +11076,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
@@ -11345,7 +11342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11611,7 +11608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11877,7 +11874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12143,7 +12140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12409,7 +12406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12675,7 +12672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12751,7 +12748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12827,7 +12824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
